--- a/N 9210 UF KANCIL.xlsx
+++ b/N 9210 UF KANCIL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="24">
   <si>
     <t>No</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>30/1/2024</t>
+  </si>
+  <si>
+    <t>18/03/2024</t>
   </si>
 </sst>
 </file>
@@ -614,8 +617,8 @@
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1068,6 +1071,7 @@
         <v>215565</v>
       </c>
       <c r="F21" s="1">
+        <f>E21+7000</f>
         <v>222565</v>
       </c>
       <c r="G21" s="1" t="s">
@@ -1078,12 +1082,25 @@
       <c r="A22" s="5">
         <v>18</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="1">
+        <v>221585</v>
+      </c>
+      <c r="F22" s="1">
+        <f>E22+7000</f>
+        <v>228585</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
